--- a/archived modeled files/Severn River/Raw and un-modeled excel files to be run by WATUM/Dx_1991_Iwasa_and_Aya_Liu_Paper02_Severn.xlsx
+++ b/archived modeled files/Severn River/Raw and un-modeled excel files to be run by WATUM/Dx_1991_Iwasa_and_Aya_Liu_Paper02_Severn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="63900" windowWidth="14805" windowHeight="7335" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Setting" sheetId="8" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="121">
   <si>
     <t>Project Name</t>
   </si>
@@ -437,9 +437,6 @@
     <t>St7 @ 13.775 (km)</t>
   </si>
   <si>
-    <t>Li et al. 2 (1998)</t>
-  </si>
-  <si>
     <t>None Dispersive Model</t>
   </si>
   <si>
@@ -456,6 +453,21 @@
   </si>
   <si>
     <t>Li et al. (1998) [1]</t>
+  </si>
+  <si>
+    <t>Li et al (1998)</t>
+  </si>
+  <si>
+    <t>Li et al 2 (1998)</t>
+  </si>
+  <si>
+    <t>Deng et al (2001)</t>
+  </si>
+  <si>
+    <t>Disley et al (2015)</t>
+  </si>
+  <si>
+    <t>Noori et al (2017)</t>
   </si>
 </sst>
 </file>
@@ -4686,7 +4698,7 @@
   <dimension ref="A1:X91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4934,7 +4946,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="52">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4964,7 +4976,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="54">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -7203,7 +7215,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y1" s="17" t="s">
         <v>45</v>
@@ -7254,10 +7266,10 @@
         <v>81</v>
       </c>
       <c r="AO1" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP1" s="98" t="s">
         <v>113</v>
-      </c>
-      <c r="AP1" s="98" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="75" customFormat="1" x14ac:dyDescent="0.25">
@@ -7346,11 +7358,11 @@
       </c>
       <c r="AB2" s="77">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AC2" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
@@ -7358,7 +7370,7 @@
       </c>
       <c r="AE2" s="75">
         <f t="shared" ref="AE2:AE3" si="0">Delta_T__seconds</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF2" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7378,7 +7390,7 @@
       </c>
       <c r="AJ2" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>485.17318473479997</v>
+        <v>283.01769109529999</v>
       </c>
       <c r="AK2" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7396,7 +7408,7 @@
       </c>
       <c r="AO2" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AP2" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7489,19 +7501,19 @@
       </c>
       <c r="AB3" s="77">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="AC3" s="77">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>19.583333333333332</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="AD3" s="77">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" s="75">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF3" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7521,7 +7533,7 @@
       </c>
       <c r="AJ3" s="75">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>406.6923060318</v>
+        <v>237.23717851855</v>
       </c>
       <c r="AK3" s="75">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7539,7 +7551,7 @@
       </c>
       <c r="AO3" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="AP3" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7632,19 +7644,19 @@
       </c>
       <c r="AB4" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>271</v>
+        <v>582</v>
       </c>
       <c r="AC4" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>47.916666666666664</v>
+        <v>82.142857142857139</v>
       </c>
       <c r="AD4" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>19.583333333333332</v>
+        <v>33.571428571428569</v>
       </c>
       <c r="AE4" s="75">
         <f>Delta_T__seconds</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF4" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7664,7 +7676,7 @@
       </c>
       <c r="AJ4" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>570.05166895799994</v>
+        <v>332.53014022549996</v>
       </c>
       <c r="AK4" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7678,7 +7690,7 @@
       <c r="AN4" s="75"/>
       <c r="AO4" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AP4" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7771,19 +7783,19 @@
       </c>
       <c r="AB5" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>592</v>
+        <v>1268</v>
       </c>
       <c r="AC5" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>87.916666666666671</v>
+        <v>150.71428571428572</v>
       </c>
       <c r="AD5" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>47.916666666666664</v>
+        <v>82.142857142857139</v>
       </c>
       <c r="AE5" s="75">
         <f>Delta_T__seconds</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF5" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7803,7 +7815,7 @@
       </c>
       <c r="AJ5" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>665.15306118480009</v>
+        <v>388.00595235780003</v>
       </c>
       <c r="AK5" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7817,7 +7829,7 @@
       <c r="AN5" s="75"/>
       <c r="AO5" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="AP5" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -7910,19 +7922,19 @@
       </c>
       <c r="AB6" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>895</v>
+        <v>1919</v>
       </c>
       <c r="AC6" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>129.58333333333334</v>
+        <v>222.14285714285714</v>
       </c>
       <c r="AD6" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>87.916666666666671</v>
+        <v>150.71428571428572</v>
       </c>
       <c r="AE6" s="75">
         <f>Delta_T__seconds</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF6" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -7942,7 +7954,7 @@
       </c>
       <c r="AJ6" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>1105.8344561772001</v>
+        <v>645.07009943670005</v>
       </c>
       <c r="AK6" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -7956,7 +7968,7 @@
       <c r="AN6" s="75"/>
       <c r="AO6" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="AP6" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8049,19 +8061,19 @@
       </c>
       <c r="AB7" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>1207</v>
+        <v>2588</v>
       </c>
       <c r="AC7" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>171.25</v>
+        <v>293.57142857142856</v>
       </c>
       <c r="AD7" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>129.58333333333334</v>
+        <v>222.14285714285714</v>
       </c>
       <c r="AE7" s="75">
         <f>Delta_T__seconds</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF7" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8081,7 +8093,7 @@
       </c>
       <c r="AJ7" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>787.92385421159997</v>
+        <v>459.6222482901</v>
       </c>
       <c r="AK7" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8095,7 +8107,7 @@
       <c r="AN7" s="75"/>
       <c r="AO7" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>171</v>
+        <v>293</v>
       </c>
       <c r="AP7" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8188,19 +8200,19 @@
       </c>
       <c r="AB8" s="84">
         <f>FLOOR((Table1[[#This Row],[Tp]]*3600)/Table1[[#This Row],[Delta T]],1)</f>
-        <v>1568</v>
+        <v>3361</v>
       </c>
       <c r="AC8" s="84">
         <f>Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters</f>
-        <v>229.58333333333334</v>
+        <v>393.57142857142856</v>
       </c>
       <c r="AD8" s="84">
         <f>Table1[[#This Row],[Start point distance '[meters']]]/Delta_X__meters</f>
-        <v>171.25</v>
+        <v>293.57142857142856</v>
       </c>
       <c r="AE8" s="75">
         <f>Delta_T__seconds</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AF8" s="76">
         <f>((Table1[[#This Row],[Ti]]-Table1[[#This Row],[calculated time '[hours']]])/Table1[[#This Row],[Ti]])</f>
@@ -8220,7 +8232,7 @@
       </c>
       <c r="AJ8" s="83">
         <f>Table1[[#This Row],[depth '[meters']]]*Table1[[#This Row],[width '[meters']]]*Delta_X__meters</f>
-        <v>883.62973550519985</v>
+        <v>515.45067904469988</v>
       </c>
       <c r="AK8" s="83">
         <f>Table1[[#This Row],[Column3]]-Table1[[#This Row],[Column2]]</f>
@@ -8234,7 +8246,7 @@
       <c r="AN8" s="75"/>
       <c r="AO8" s="99">
         <f>FLOOR(Table1[[#This Row],[End Point distance  '[meters']]]/Delta_X__meters,1)</f>
-        <v>229</v>
+        <v>393</v>
       </c>
       <c r="AP8" s="99">
         <f>((1/1000000)*Table1[[#This Row],[Cup]]*Table1[[#This Row],[R ratio]]*Table1[[#This Row],[Inj Mass]])/Table1[[#This Row],[Q '[m3/sec']]]</f>
@@ -8329,7 +8341,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8391,7 +8403,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="60">
-        <v>1100</v>
+        <v>40</v>
       </c>
       <c r="B2" s="13">
         <v>1000</v>
@@ -8439,7 +8451,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="P22" sqref="P2:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8464,7 +8476,7 @@
         <v>5</v>
       </c>
       <c r="P2" s="89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8560,15 +8572,15 @@
         <v>350</v>
       </c>
       <c r="P11" s="90" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>400</v>
       </c>
       <c r="P12" s="91" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8576,7 +8588,7 @@
         <v>450</v>
       </c>
       <c r="P13" s="90" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8632,7 +8644,7 @@
         <v>800</v>
       </c>
       <c r="P20" s="90" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="8:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8640,7 +8652,7 @@
         <v>900</v>
       </c>
       <c r="P21" s="90" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="8:16" x14ac:dyDescent="0.25">
@@ -8648,7 +8660,7 @@
         <v>1000</v>
       </c>
       <c r="P22" s="92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="8:16" x14ac:dyDescent="0.25">
@@ -8752,7 +8764,7 @@
         <v>93</v>
       </c>
       <c r="J1" s="100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K1" s="100" t="s">
         <v>94</v>
@@ -9307,71 +9319,12 @@
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
     </row>
-    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="D13" s="100" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="100" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>28625.050200190482</v>
-      </c>
-      <c r="E14">
-        <v>8397713719.6893826</v>
-      </c>
-      <c r="F14">
-        <v>16659637699.36138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>68852.677170974173</v>
-      </c>
-      <c r="E15">
-        <v>1191998690413.3914</v>
-      </c>
-      <c r="F15">
-        <v>1694556080269.5063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>39274.013348111286</v>
-      </c>
-      <c r="E16">
-        <v>12738920.171506403</v>
-      </c>
-      <c r="F16">
-        <v>14182975.825430201</v>
-      </c>
-    </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <v>64026.44107621452</v>
-      </c>
-      <c r="E17">
-        <v>11660815.389813524</v>
-      </c>
-      <c r="F17">
-        <v>15746001.233835166</v>
-      </c>
-    </row>
-    <row r="18" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>9147441664.3559856</v>
-      </c>
-      <c r="E18">
-        <v>1.9290048029375352E+18</v>
-      </c>
-      <c r="F18">
-        <v>2.801819736520597E+18</v>
-      </c>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+    </row>
+    <row r="18" spans="13:20" x14ac:dyDescent="0.25">
       <c r="N18" s="38"/>
       <c r="O18" s="38"/>
       <c r="P18" s="38"/>
@@ -9380,16 +9333,7 @@
       <c r="S18" s="38"/>
       <c r="T18" s="38"/>
     </row>
-    <row r="19" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <v>621158150.54461765</v>
-      </c>
-      <c r="E19">
-        <v>2.2739472572257246E+20</v>
-      </c>
-      <c r="F19">
-        <v>3.6764427167066312E+20</v>
-      </c>
+    <row r="19" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M19" s="34"/>
       <c r="N19" s="38"/>
       <c r="O19" s="38"/>
@@ -9399,16 +9343,7 @@
       <c r="S19" s="38"/>
       <c r="T19" s="38"/>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>2723227.9512344319</v>
-      </c>
-      <c r="E20">
-        <v>7078511204.2171917</v>
-      </c>
-      <c r="F20">
-        <v>10784896704.219383</v>
-      </c>
+    <row r="20" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M20" s="34"/>
       <c r="N20" s="38"/>
       <c r="O20" s="38"/>
@@ -9418,7 +9353,7 @@
       <c r="S20" s="38"/>
       <c r="T20" s="38"/>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M21" s="34"/>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
@@ -9428,7 +9363,7 @@
       <c r="S21" s="38"/>
       <c r="T21" s="38"/>
     </row>
-    <row r="22" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M22" s="34"/>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
@@ -9438,7 +9373,7 @@
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M23" s="34"/>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
@@ -9448,7 +9383,7 @@
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M24" s="34"/>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
@@ -9458,7 +9393,7 @@
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M25" s="35"/>
       <c r="N25" s="38"/>
       <c r="O25" s="38"/>
@@ -9468,7 +9403,7 @@
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:20" x14ac:dyDescent="0.25">
       <c r="M26" s="34"/>
       <c r="N26" s="38"/>
       <c r="O26" s="38"/>
